--- a/coin sim.xlsx
+++ b/coin sim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studenthowest-my.sharepoint.com/personal/emiel_delaey_student_howest_be/Documents/Personal/DiscordBots/Coin_Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{E5713091-02D3-4C19-9899-AF6C35534022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761A259C-30CC-4676-81AD-ED43AD362C95}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{E5713091-02D3-4C19-9899-AF6C35534022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{422ED84D-746F-47E1-AAAE-5B4BEC82F1BE}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{CCF6C7CE-8D90-4CD3-BFCA-2FECF122B458}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CCF6C7CE-8D90-4CD3-BFCA-2FECF122B458}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,6 +103,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70AFF478-C99D-40ED-9D2E-B9E5C9B05468}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,22 +442,22 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>A1*$E$2</f>
-        <v>9.6000000000000014</v>
+        <v>7.5</v>
       </c>
       <c r="B2">
         <f>SUM(A1:A9)</f>
-        <v>14991.976742400009</v>
+        <v>7627.39453125</v>
       </c>
       <c r="C2">
         <f>1/POWER(2,COUNT(A1:A14))*100</f>
-        <v>0.390625</v>
+        <v>0.1953125</v>
       </c>
       <c r="D2">
         <f>A4*2-SUM(A1:A4)</f>
-        <v>54.984000000000037</v>
+        <v>17.625</v>
       </c>
       <c r="E2">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -462,37 +466,43 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>A2*$E$2</f>
-        <v>30.720000000000006</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A3:A6" si="0">A3*$E$2</f>
-        <v>98.30400000000003</v>
+        <f t="shared" ref="A4:A6" si="0">A3*$E$2</f>
+        <v>46.875</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>314.57280000000014</v>
+        <v>117.1875</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <f t="shared" si="0"/>
-        <v>1006.6329600000005</v>
+        <v>292.96875</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>A6*$E$2</f>
-        <v>3221.2254720000019</v>
+        <v>732.421875</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>A7*$E$2</f>
-        <v>10307.921510400007</v>
+        <v>1831.0546875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>A8*$E$2</f>
+        <v>4577.63671875</v>
       </c>
     </row>
   </sheetData>
